--- a/documents/ファイル構成一覧表-D3.xlsx
+++ b/documents/ファイル構成一覧表-D3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9996B03B-A27F-437E-9433-0F91753BFD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C893B9-37AC-40C0-B98F-CA8A77B00AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="15" yWindow="1380" windowWidth="10935" windowHeight="7875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>list.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>common.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -170,19 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一覧表画面用js</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全画面共通css</t>
     <rPh sb="0" eb="3">
       <t>ゼンガメン</t>
@@ -261,14 +244,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IDPW.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー関連のデータアクセス用DAO</t>
     <rPh sb="4" eb="6">
       <t>カンレン</t>
@@ -474,6 +449,56 @@
     <t>プロフィール新規作成のJSP</t>
     <rPh sb="6" eb="10">
       <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Leftmenu.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューのJSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mypage.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Account.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chat.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント新規作成画面用js</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット画面用js</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ画面用js</t>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -590,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,9 +638,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G49"/>
+  <dimension ref="B2:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -980,14 +1002,14 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B49" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -997,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1014,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1031,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1048,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1065,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1082,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1116,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1133,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1150,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1167,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
@@ -1186,10 +1208,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1205,10 +1227,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1224,10 +1246,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1243,10 +1265,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1262,10 +1284,10 @@
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1281,10 +1303,10 @@
         <v>9</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -1300,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1334,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1351,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1368,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1385,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1396,16 +1418,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1415,16 +1437,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1434,16 +1456,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1453,35 +1475,34 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1491,16 +1512,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1510,16 +1531,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>55</v>
+      <c r="E33" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1529,16 +1550,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>56</v>
+      <c r="E34" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1548,16 +1569,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1567,75 +1588,75 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="6">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="5">
+        <f>ROW()-2</f>
+        <v>37</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="5">
-        <f>ROW()-2</f>
-        <v>36</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="1"/>
+      <c r="F39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
@@ -1643,16 +1664,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1662,15 +1683,17 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -1679,15 +1702,17 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -1696,33 +1721,37 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
+      <c r="F44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
@@ -1733,92 +1762,39 @@
         <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="6">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="5">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="1"/>
+      <c r="G46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E33" r:id="rId1" xr:uid="{5C74599C-74D6-4F55-B69D-684F0E5BCBE0}"/>
+    <hyperlink ref="E34" r:id="rId1" xr:uid="{5C74599C-74D6-4F55-B69D-684F0E5BCBE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1826,6 +1802,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1996,22 +1987,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2028,29 +2029,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表-D3.xlsx
+++ b/documents/ファイル構成一覧表-D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C893B9-37AC-40C0-B98F-CA8A77B00AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663D2607-9232-4BCC-AA5A-C81416E538C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1380" windowWidth="10935" windowHeight="7875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -125,14 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WebContent/css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -172,26 +164,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面用css</t>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧表示画面用css</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -955,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G46"/>
+  <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1002,14 +974,14 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1019,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1036,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1053,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1070,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1087,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1104,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1138,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1155,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1172,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1189,7 +1161,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
@@ -1208,10 +1180,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1227,10 +1199,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1246,10 +1218,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1265,10 +1237,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1284,10 +1256,10 @@
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1303,10 +1275,10 @@
         <v>9</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -1322,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1356,7 +1328,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1373,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1390,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1407,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1418,16 +1390,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1437,16 +1409,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1456,16 +1428,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1475,16 +1447,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1493,16 +1465,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1512,16 +1484,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1531,16 +1503,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1550,16 +1522,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1569,16 +1541,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1588,16 +1560,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1607,16 +1579,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1626,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G38" s="6"/>
     </row>
@@ -1645,7 +1617,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>14</v>
@@ -1654,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G39" s="5"/>
     </row>
@@ -1664,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -1673,7 +1645,7 @@
         <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1683,16 +1655,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1702,16 +1674,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1721,16 +1693,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1740,56 +1712,18 @@
         <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1802,21 +1736,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1987,32 +1906,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2029,4 +1938,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>